--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.453280377663446</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.1639135805488596</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.213741624603347</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.2506090191202292</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.2303896440728823</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.2299259768496841</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.2337062263276104</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.2326359111302232</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.2322822744344182</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.2325828236818733</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>-0.6613666761643098</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>0.8213078533922216</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>-0.2488073717043568</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.5252848392770045</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>-0.03414363673701528</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.3703098585454104</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.07794823080604844</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.2892983349069034</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.136516458784231</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.2469615835596112</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.3146564175056557</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.3104663053692875</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.2889617811469115</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.290304330514628</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.2954667473110362</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.2982047090469935</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.2831013407634878</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.2730120323500827</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.2475660717398014</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.2482540575764031</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.2337494709146751</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.2329057877947855</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.278138597633266</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.2811533807843904</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.2900502403223796</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.3213180620259676</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.2465669884021161</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.245172003811553</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.2794159847160724</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.2788971859539129</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.270758747216137</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.2736756289391689</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.3032827878100232</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.3041760292237634</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.2929685651515123</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.294314310433458</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.3067634402859611</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.3057647495649999</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.3204623899830514</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.3187693003924572</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.3016159512129489</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.2977230201722555</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.2963743879419273</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.2961632159100831</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.3198831704398708</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.2865063333798247</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.3073708805800984</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.2824591504113955</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.3069806625308538</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.2261389024698555</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.1886013522277703</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.1966760250811814</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.453280377663446</v>
+        <v>0.8777961488710669</v>
       </c>
       <c r="AS2">
-        <v>0.2446309237367612</v>
+        <v>0.3643155465403478</v>
       </c>
       <c r="AT2">
-        <v>0.4231662827395889</v>
+        <v>0.332041271681162</v>
       </c>
       <c r="AU2">
-        <v>0.3699198881646638</v>
+        <v>0.4819063909728227</v>
       </c>
       <c r="AV2">
-        <v>0.3679506659464772</v>
+        <v>0.4681720678813691</v>
       </c>
       <c r="AW2">
-        <v>0.3613332751045136</v>
+        <v>0.3207438967639749</v>
       </c>
       <c r="AX2">
-        <v>0.1280600634680644</v>
+        <v>0.02664733879111017</v>
       </c>
       <c r="AY2">
-        <v>0.0866958917134216</v>
+        <v>-0.1467619850338828</v>
       </c>
       <c r="AZ2">
-        <v>0.4365120142420879</v>
+        <v>0.4019405934352949</v>
       </c>
       <c r="BA2">
-        <v>0.2464297750638646</v>
+        <v>0.2996775142190355</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.1639135805488596</v>
+        <v>0.3012644508693455</v>
       </c>
       <c r="AS3">
-        <v>0.2702465464329047</v>
+        <v>0.1344059941099104</v>
       </c>
       <c r="AT3">
-        <v>0.2116139134719616</v>
+        <v>0.2998947699497946</v>
       </c>
       <c r="AU3">
-        <v>0.2064985737399636</v>
+        <v>0.2263935919295004</v>
       </c>
       <c r="AV3">
-        <v>0.2359326289479346</v>
+        <v>0.17420684708628</v>
       </c>
       <c r="AW3">
-        <v>0.2415370699139266</v>
+        <v>0.2303723662871337</v>
       </c>
       <c r="AX3">
-        <v>0.304099699395346</v>
+        <v>0.1742546172623092</v>
       </c>
       <c r="AY3">
-        <v>0.3066026461764033</v>
+        <v>0.2564623293138822</v>
       </c>
       <c r="AZ3">
-        <v>0.2165606773423651</v>
+        <v>0.383971233733856</v>
       </c>
       <c r="BA3">
-        <v>0.2741980645855882</v>
+        <v>0.2334133005337194</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.213741624603347</v>
+        <v>0.1246252570305768</v>
       </c>
       <c r="AS4">
-        <v>0.2092171035057684</v>
+        <v>0.2454962336276151</v>
       </c>
       <c r="AT4">
-        <v>0.1851644158302929</v>
+        <v>0.1809613779686149</v>
       </c>
       <c r="AU4">
-        <v>0.1956075447020114</v>
+        <v>0.1646546116838834</v>
       </c>
       <c r="AV4">
-        <v>0.1892700643543989</v>
+        <v>0.1807786331834558</v>
       </c>
       <c r="AW4">
-        <v>0.2058854385913348</v>
+        <v>0.2032629972347514</v>
       </c>
       <c r="AX4">
-        <v>0.2564238442104546</v>
+        <v>0.3152664907839073</v>
       </c>
       <c r="AY4">
-        <v>0.3143171910556238</v>
+        <v>0.3455324894803476</v>
       </c>
       <c r="AZ4">
-        <v>0.2396742223787144</v>
+        <v>0.205764452504363</v>
       </c>
       <c r="BA4">
-        <v>0.2582803400935843</v>
+        <v>0.2774134492184185</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.2506090191202292</v>
+        <v>0.2858903600785752</v>
       </c>
       <c r="AS5">
-        <v>0.2235967436734202</v>
+        <v>0.253651645477574</v>
       </c>
       <c r="AT5">
-        <v>0.2326181154004152</v>
+        <v>0.2245444811673751</v>
       </c>
       <c r="AU5">
-        <v>0.2285719082455484</v>
+        <v>0.2309192464969316</v>
       </c>
       <c r="AV5">
-        <v>0.2269603147606867</v>
+        <v>0.2313525696392629</v>
       </c>
       <c r="AW5">
-        <v>0.2395498259171987</v>
+        <v>0.2277917342888979</v>
       </c>
       <c r="AX5">
-        <v>0.2387290158906654</v>
+        <v>0.2416581260118855</v>
       </c>
       <c r="AY5">
-        <v>0.2713659531877638</v>
+        <v>0.2419592111661603</v>
       </c>
       <c r="AZ5">
-        <v>0.2760497126909016</v>
+        <v>0.2663524755455109</v>
       </c>
       <c r="BA5">
-        <v>0.2581045528321401</v>
+        <v>0.2763245114640269</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.2303896440728823</v>
+        <v>0.269910270277456</v>
       </c>
       <c r="AS6">
-        <v>0.2304224020509967</v>
+        <v>0.2305335744548782</v>
       </c>
       <c r="AT6">
-        <v>0.2225826927022835</v>
+        <v>0.2326732689652927</v>
       </c>
       <c r="AU6">
-        <v>0.2202974963441968</v>
+        <v>0.2215526111320047</v>
       </c>
       <c r="AV6">
-        <v>0.2234483337663785</v>
+        <v>0.2146359489258886</v>
       </c>
       <c r="AW6">
-        <v>0.2353261746452861</v>
+        <v>0.2249532998660946</v>
       </c>
       <c r="AX6">
-        <v>0.2534147258087094</v>
+        <v>0.2389733150936773</v>
       </c>
       <c r="AY6">
-        <v>0.2831395320931048</v>
+        <v>0.2579041966221973</v>
       </c>
       <c r="AZ6">
-        <v>0.259946183481347</v>
+        <v>0.2820617352534212</v>
       </c>
       <c r="BA6">
-        <v>0.2611528683049122</v>
+        <v>0.2682027943664919</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.2299259768496841</v>
+        <v>0.2446533793891935</v>
       </c>
       <c r="AS7">
-        <v>0.2256114067397084</v>
+        <v>0.2361921306185236</v>
       </c>
       <c r="AT7">
-        <v>0.2169616234063358</v>
+        <v>0.2220640947105247</v>
       </c>
       <c r="AU7">
-        <v>0.2169027154277899</v>
+        <v>0.2123008345319151</v>
       </c>
       <c r="AV7">
-        <v>0.2179179949532182</v>
+        <v>0.2107246043113853</v>
       </c>
       <c r="AW7">
-        <v>0.2304474852518166</v>
+        <v>0.221478949128917</v>
       </c>
       <c r="AX7">
-        <v>0.2519952868957982</v>
+        <v>0.2537213710762474</v>
       </c>
       <c r="AY7">
-        <v>0.2874480624909553</v>
+        <v>0.2722786455920507</v>
       </c>
       <c r="AZ7">
-        <v>0.2578171779361752</v>
+        <v>0.2650975996354087</v>
       </c>
       <c r="BA7">
-        <v>0.2602198199942837</v>
+        <v>0.2709661572045218</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.2337062263276104</v>
+        <v>0.2553046583469353</v>
       </c>
       <c r="AS8">
-        <v>0.2258523018926933</v>
+        <v>0.2387216821296676</v>
       </c>
       <c r="AT8">
-        <v>0.2205862726412087</v>
+        <v>0.2239244143364342</v>
       </c>
       <c r="AU8">
-        <v>0.219455522386345</v>
+        <v>0.2169146240005318</v>
       </c>
       <c r="AV8">
-        <v>0.2202531603627073</v>
+        <v>0.214917295262062</v>
       </c>
       <c r="AW8">
-        <v>0.2327994299701835</v>
+        <v>0.2230682048749324</v>
       </c>
       <c r="AX8">
-        <v>0.2496923292192242</v>
+        <v>0.2494392878525332</v>
       </c>
       <c r="AY8">
-        <v>0.2839515662018604</v>
+        <v>0.2647644572105415</v>
       </c>
       <c r="AZ8">
-        <v>0.2616897423586474</v>
+        <v>0.2674336590103233</v>
       </c>
       <c r="BA8">
-        <v>0.2599424323371409</v>
+        <v>0.2716595556827618</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.2326359111302232</v>
+        <v>0.2567864979912684</v>
       </c>
       <c r="AS9">
-        <v>0.2266702871608795</v>
+        <v>0.2368884296904857</v>
       </c>
       <c r="AT9">
-        <v>0.2204858143864797</v>
+        <v>0.2252914338437814</v>
       </c>
       <c r="AU9">
-        <v>0.2192765379614364</v>
+        <v>0.2171728635470749</v>
       </c>
       <c r="AV9">
-        <v>0.2204992395994199</v>
+        <v>0.2143287030763195</v>
       </c>
       <c r="AW9">
-        <v>0.2329467797462568</v>
+        <v>0.2231896888462437</v>
       </c>
       <c r="AX9">
-        <v>0.2507036937491348</v>
+        <v>0.2480492903464518</v>
       </c>
       <c r="AY9">
-        <v>0.2842308175187579</v>
+        <v>0.2644394144371676</v>
       </c>
       <c r="AZ9">
-        <v>0.2608870326423767</v>
+        <v>0.27002759358757</v>
       </c>
       <c r="BA9">
-        <v>0.2602057615686134</v>
+        <v>0.2709099380802122</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.2322822744344182</v>
+        <v>0.2543480219608074</v>
       </c>
       <c r="AS10">
-        <v>0.2263690498073443</v>
+        <v>0.2369881998818544</v>
       </c>
       <c r="AT10">
-        <v>0.2198469255585077</v>
+        <v>0.2245156242063928</v>
       </c>
       <c r="AU10">
-        <v>0.2188701094377824</v>
+        <v>0.2162440951168816</v>
       </c>
       <c r="AV10">
-        <v>0.2200125436857759</v>
+        <v>0.2137594562953814</v>
       </c>
       <c r="AW10">
-        <v>0.2324636102059388</v>
+        <v>0.2228692395485048</v>
       </c>
       <c r="AX10">
-        <v>0.2508098657754468</v>
+        <v>0.2493078203195205</v>
       </c>
       <c r="AY10">
-        <v>0.2847902466630031</v>
+        <v>0.2659490604352546</v>
       </c>
       <c r="AZ10">
-        <v>0.2603718419254252</v>
+        <v>0.2687370332231431</v>
       </c>
       <c r="BA10">
-        <v>0.2601744552346262</v>
+        <v>0.2710122703112585</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.2325828236818733</v>
+        <v>0.2548116626603635</v>
       </c>
       <c r="AS11">
-        <v>0.2263115888263497</v>
+        <v>0.2372970185186716</v>
       </c>
       <c r="AT11">
-        <v>0.2200664913110766</v>
+        <v>0.224509218880982</v>
       </c>
       <c r="AU11">
-        <v>0.2190288281917749</v>
+        <v>0.2164869663535653</v>
       </c>
       <c r="AV11">
-        <v>0.2201205201050555</v>
+        <v>0.2140396852481642</v>
       </c>
       <c r="AW11">
-        <v>0.2325917358194568</v>
+        <v>0.2229476850767593</v>
       </c>
       <c r="AX11">
-        <v>0.2505853491750679</v>
+        <v>0.2491612539152318</v>
       </c>
       <c r="AY11">
-        <v>0.2845668243703328</v>
+        <v>0.2655343893576227</v>
       </c>
       <c r="AZ11">
-        <v>0.2606943405417806</v>
+        <v>0.2686391935376293</v>
       </c>
       <c r="BA11">
-        <v>0.2601348700188377</v>
+        <v>0.2711242927507634</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>-0.1390655880558631</v>
       </c>
       <c r="AG53">
-        <v>-0.5275556385392903</v>
+        <v>-4.286393709578393</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.2118347729944323</v>
       </c>
       <c r="AG54">
-        <v>0.1578522031510884</v>
+        <v>-3.508190234234744</v>
       </c>
       <c r="AH54">
-        <v>0.3853497904027477</v>
+        <v>-0.7497033268286971</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.1491138998768531</v>
       </c>
       <c r="AG55">
-        <v>0.2261259226616552</v>
+        <v>-2.643083159779476</v>
       </c>
       <c r="AH55">
-        <v>0.1692805543054073</v>
+        <v>0.3295706287828637</v>
       </c>
       <c r="AI55">
-        <v>0.8093216539565666</v>
+        <v>-0.04498056438296638</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.2217622527700155</v>
       </c>
       <c r="AG56">
-        <v>0.1813808225015348</v>
+        <v>-2.047237956259565</v>
       </c>
       <c r="AH56">
-        <v>0.2001251871363511</v>
+        <v>0.1731526550775851</v>
       </c>
       <c r="AI56">
-        <v>0.4198288993950781</v>
+        <v>0.2936730583890511</v>
       </c>
       <c r="AJ56">
-        <v>-0.09914031611404089</v>
+        <v>0.7002373774769056</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.2103173498062632</v>
       </c>
       <c r="AG57">
-        <v>0.1886441757659254</v>
+        <v>-1.588591004660259</v>
       </c>
       <c r="AH57">
-        <v>0.1963042299247037</v>
+        <v>0.1901448874662345</v>
       </c>
       <c r="AI57">
-        <v>0.04473993858004938</v>
+        <v>0.2025337350725342</v>
       </c>
       <c r="AJ57">
-        <v>0.06397493932129422</v>
+        <v>0.2893505185854685</v>
       </c>
       <c r="AK57">
-        <v>-0.3606102710296515</v>
+        <v>-0.2185484173027438</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.2253966636044061</v>
       </c>
       <c r="AG58">
-        <v>0.1889002704597713</v>
+        <v>-1.245824378243083</v>
       </c>
       <c r="AH58">
-        <v>0.1967075868482919</v>
+        <v>0.1890541710406209</v>
       </c>
       <c r="AI58">
-        <v>0.1982118645170549</v>
+        <v>0.1962384917386616</v>
       </c>
       <c r="AJ58">
-        <v>0.4020195164109246</v>
+        <v>0.1244322402521102</v>
       </c>
       <c r="AK58">
-        <v>0.3565085455179231</v>
+        <v>0.08230560333909265</v>
       </c>
       <c r="AL58">
-        <v>0.2389030594714187</v>
+        <v>-0.67567918679623</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.2233539779415025</v>
       </c>
       <c r="AG59">
-        <v>0.188532380152339</v>
+        <v>-0.9877032334591382</v>
       </c>
       <c r="AH59">
-        <v>0.1966746979345722</v>
+        <v>0.1889901575626091</v>
       </c>
       <c r="AI59">
-        <v>0.223132269183064</v>
+        <v>0.2046631104168349</v>
       </c>
       <c r="AJ59">
-        <v>0.2539490550496376</v>
+        <v>0.2314236079107743</v>
       </c>
       <c r="AK59">
-        <v>0.3897437433597827</v>
+        <v>0.4246083327144108</v>
       </c>
       <c r="AL59">
-        <v>0.5165630389156362</v>
+        <v>0.2995829135538967</v>
       </c>
       <c r="AM59">
-        <v>0.2967521820080331</v>
+        <v>0.3188846017760019</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.2264922744622411</v>
       </c>
       <c r="AG60">
-        <v>0.1886051124109552</v>
+        <v>-0.7937084796504275</v>
       </c>
       <c r="AH60">
-        <v>0.1966758045785205</v>
+        <v>0.1890266547941414</v>
       </c>
       <c r="AI60">
-        <v>0.191994853727227</v>
+        <v>0.2033104898696202</v>
       </c>
       <c r="AJ60">
-        <v>0.2449657131587995</v>
+        <v>0.2242061407914728</v>
       </c>
       <c r="AK60">
-        <v>0.2453737262156401</v>
+        <v>0.2515510050948854</v>
       </c>
       <c r="AL60">
-        <v>0.2946891088545431</v>
+        <v>0.5028487477794797</v>
       </c>
       <c r="AM60">
-        <v>0.2006504976697662</v>
+        <v>0.4977770794640427</v>
       </c>
       <c r="AN60">
-        <v>-0.02248885633498393</v>
+        <v>0.03851268833981415</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.2261389024698555</v>
       </c>
       <c r="AG61">
-        <v>0.1886042589842946</v>
+        <v>-0.6478341070767784</v>
       </c>
       <c r="AH61">
-        <v>0.1966760987551411</v>
+        <v>0.1890190690875639</v>
       </c>
       <c r="AI61">
-        <v>0.1953385751065638</v>
+        <v>0.2029541665861029</v>
       </c>
       <c r="AJ61">
-        <v>0.2748195863239653</v>
+        <v>0.2108749311243137</v>
       </c>
       <c r="AK61">
-        <v>0.2871221694445421</v>
+        <v>0.2527642454274994</v>
       </c>
       <c r="AL61">
-        <v>0.30656272000175</v>
+        <v>0.2599595685726809</v>
       </c>
       <c r="AM61">
-        <v>0.3556205069482609</v>
+        <v>0.2717677930988472</v>
       </c>
       <c r="AN61">
-        <v>0.371513628781477</v>
+        <v>0.1687858221357038</v>
       </c>
       <c r="AO61">
-        <v>0.3122140916839123</v>
+        <v>-0.00101971210253729</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.1886013522277703</v>
+        <v>-0.5381584434198711</v>
       </c>
       <c r="AH62">
-        <v>0.1966760079714538</v>
+        <v>0.1890201985990884</v>
       </c>
       <c r="AI62">
-        <v>0.1996506061118111</v>
+        <v>0.2031366034139685</v>
       </c>
       <c r="AJ62">
-        <v>0.2659605008763647</v>
+        <v>0.2157764636754823</v>
       </c>
       <c r="AK62">
-        <v>0.3001057710146052</v>
+        <v>0.2825373361465565</v>
       </c>
       <c r="AL62">
-        <v>0.3464295812761149</v>
+        <v>0.2965871688026788</v>
       </c>
       <c r="AM62">
-        <v>0.3273864542409668</v>
+        <v>0.3063770402542852</v>
       </c>
       <c r="AN62">
-        <v>0.36131531243071</v>
+        <v>0.4311362803442193</v>
       </c>
       <c r="AO62">
-        <v>0.3517090595879572</v>
+        <v>0.341566077218275</v>
       </c>
       <c r="AP62">
-        <v>0.6612985802716463</v>
+        <v>0.1061881582661627</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.1966760250811814</v>
+        <v>0.189020071889152</v>
       </c>
       <c r="AI63">
-        <v>0.1980723856077093</v>
+        <v>0.2031243299309784</v>
       </c>
       <c r="AJ63">
-        <v>0.2636867599413008</v>
+        <v>0.2162783488150342</v>
       </c>
       <c r="AK63">
-        <v>0.2880330277609</v>
+        <v>0.2718398763487877</v>
       </c>
       <c r="AL63">
-        <v>0.3322119826828731</v>
+        <v>0.3303912098096737</v>
       </c>
       <c r="AM63">
-        <v>0.305650935337018</v>
+        <v>0.3401253532341318</v>
       </c>
       <c r="AN63">
-        <v>0.2983805990735668</v>
+        <v>0.3298192876469111</v>
       </c>
       <c r="AO63">
-        <v>0.2945718995416857</v>
+        <v>0.3604818684940594</v>
       </c>
       <c r="AP63">
-        <v>0.4317643981353869</v>
+        <v>0.3358752100847114</v>
       </c>
       <c r="AQ63">
-        <v>0.678978687433329</v>
+        <v>0.5280439739228534</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_DOMUSE_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>-0.6613666761643098</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.8213078533922216</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>0.5962796995154855</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.2502031342638532</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.006732762895496212</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.4432466106232544</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>0.2492255866173317</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.3365171369896647</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.3634607038687629</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.08665846398411101</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.09650964766867867</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.1979321688363399</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>0.1878763337545196</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.1740762192535469</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>-0.67567918679623</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.3188846017760019</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.03851268833981415</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>-0.00101971210253729</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.1061881582661627</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>0.5280439739228534</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>0.8777961488710669</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.3643155465403478</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.332041271681162</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.4819063909728227</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.4681720678813691</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.3207438967639749</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.02664733879111017</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>-0.1467619850338828</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.4019405934352949</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.2996775142190355</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.2334133005337194</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.2270536959888376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.2774134492184185</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.2584586613899786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.2763245114640269</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.267110162551939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.2682027943664919</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.2584457304690463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.2709661572045218</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.25955667089935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.2716595556827618</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.2608396828010808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.2709099380802122</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.2602238633310655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.2710122703112585</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.2601767679767295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.2711242927507634</v>
+      </c>
+      <c r="AW72">
+        <v>0.2603078675382955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.2602752457138798</v>
       </c>
     </row>
   </sheetData>
